--- a/Arbeitszeiten.xlsx
+++ b/Arbeitszeiten.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25B44E6F-75A2-4B89-A2B9-47B8F3D73C64}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BDDCB-8B38-4748-B3DC-450E765B729C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A5CBB3F0-453B-4637-8BFF-E4A14034E8FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Zeitverbrauch in Arbeitsstunden</t>
   </si>
@@ -55,6 +55,9 @@
   </si>
   <si>
     <t>Importe gefixt , Abstract entfernt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Runnable thread erstellt </t>
   </si>
 </sst>
 </file>
@@ -407,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E828BF6-8BB6-4292-8F82-E3BFFA6BBC2A}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +507,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <v>43256</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Arbeitszeiten.xlsx
+++ b/Arbeitszeiten.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arbeit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\arbeit\Repository\GitMineJump\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0BDDCB-8B38-4748-B3DC-450E765B729C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3404AA-6452-43B9-9BA3-600FDDC55575}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{A5CBB3F0-453B-4637-8BFF-E4A14034E8FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>Zeitverbrauch in Arbeitsstunden</t>
   </si>
@@ -58,6 +58,42 @@
   </si>
   <si>
     <t xml:space="preserve">Runnable thread erstellt </t>
+  </si>
+  <si>
+    <t>Versuch Spielschleife als "while" zu erstellen</t>
+  </si>
+  <si>
+    <t>Versuch Spielschleife mit redundanten</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aufruf zu realisieren // Bilder eingebunden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Versuch Spielschleife mit ausgelagerten </t>
+  </si>
+  <si>
+    <t>Variablen zu Realisieren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spielschleife erfolgreich mit javafx </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animation realisiert  // Spielerbewegung </t>
+  </si>
+  <si>
+    <t>eingebunden</t>
+  </si>
+  <si>
+    <t>Spielerbewegung angepasst</t>
+  </si>
+  <si>
+    <t>Hintergrund Klasse angelegt</t>
+  </si>
+  <si>
+    <t>Spielerbewegung erneut angepasst</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                               0.3</t>
   </si>
 </sst>
 </file>
@@ -410,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E828BF6-8BB6-4292-8F82-E3BFFA6BBC2A}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,6 +554,103 @@
         <v>10</v>
       </c>
     </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <v>43259</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <v>43263</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <v>43266</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <v>43270</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <v>43272</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <v>43273</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <v>43274</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
